--- a/SQL/SQL_Data.xlsx
+++ b/SQL/SQL_Data.xlsx
@@ -4,19 +4,24 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8340"/>
+    <workbookView windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Department" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Major" sheetId="2" r:id="rId2"/>
+    <sheet name="Teacher" sheetId="3" r:id="rId3"/>
+    <sheet name="Student" sheetId="4" r:id="rId4"/>
+    <sheet name="Course" sheetId="5" r:id="rId5"/>
+    <sheet name="ExClass" sheetId="6" r:id="rId6"/>
+    <sheet name="Learn" sheetId="7" r:id="rId7"/>
+    <sheet name="Teaching" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="112">
   <si>
     <t>DeptNo</t>
   </si>
@@ -58,6 +63,300 @@
   </si>
   <si>
     <t>Philosophy</t>
+  </si>
+  <si>
+    <t>MajorNo</t>
+  </si>
+  <si>
+    <t>MajorName</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>sing</t>
+  </si>
+  <si>
+    <t>math</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>TechNo</t>
+  </si>
+  <si>
+    <t>TechName</t>
+  </si>
+  <si>
+    <t>Jacky</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Tony</t>
+  </si>
+  <si>
+    <t>StuNo</t>
+  </si>
+  <si>
+    <t>StuName</t>
+  </si>
+  <si>
+    <t>jacky</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat </t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>gary</t>
+  </si>
+  <si>
+    <t>paul</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>tiantian</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>pink</t>
+  </si>
+  <si>
+    <t>CourseNo</t>
+  </si>
+  <si>
+    <t>CourseName</t>
+  </si>
+  <si>
+    <t>00000001</t>
+  </si>
+  <si>
+    <t>00000002</t>
+  </si>
+  <si>
+    <t>Software Engineering</t>
+  </si>
+  <si>
+    <t>00000003</t>
+  </si>
+  <si>
+    <t>e-commence</t>
+  </si>
+  <si>
+    <t>00000004</t>
+  </si>
+  <si>
+    <t>Chinese Music</t>
+  </si>
+  <si>
+    <t>00000005</t>
+  </si>
+  <si>
+    <t>Math - 1</t>
+  </si>
+  <si>
+    <t>00000006</t>
+  </si>
+  <si>
+    <t>Math - 2</t>
+  </si>
+  <si>
+    <t>00000007</t>
+  </si>
+  <si>
+    <t>Math - 3</t>
+  </si>
+  <si>
+    <t>00000008</t>
+  </si>
+  <si>
+    <t>philosophy</t>
+  </si>
+  <si>
+    <t>ExClassNo</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>semester</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>00000009</t>
+  </si>
+  <si>
+    <t>00000010</t>
+  </si>
+  <si>
+    <t>00000011</t>
+  </si>
+  <si>
+    <t>00000012</t>
+  </si>
+  <si>
+    <t>00000013</t>
+  </si>
+  <si>
+    <t>00000014</t>
+  </si>
+  <si>
+    <t>00000015</t>
+  </si>
+  <si>
+    <t>00000016</t>
+  </si>
+  <si>
+    <t>00000017</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>00000018</t>
+  </si>
+  <si>
+    <t>00000019</t>
+  </si>
+  <si>
+    <t>00000020</t>
+  </si>
+  <si>
+    <t>00000021</t>
+  </si>
+  <si>
+    <t>00000022</t>
+  </si>
+  <si>
+    <t>00000023</t>
+  </si>
+  <si>
+    <t>00000024</t>
+  </si>
+  <si>
+    <t>00000025</t>
+  </si>
+  <si>
+    <t>00000026</t>
+  </si>
+  <si>
+    <t>00000027</t>
+  </si>
+  <si>
+    <t>00000028</t>
+  </si>
+  <si>
+    <t>00000029</t>
+  </si>
+  <si>
+    <t>00000030</t>
+  </si>
+  <si>
+    <t>00000031</t>
+  </si>
+  <si>
+    <t>00000032</t>
+  </si>
+  <si>
+    <t>00000033</t>
+  </si>
+  <si>
+    <t>00000034</t>
+  </si>
+  <si>
+    <t>00000035</t>
+  </si>
+  <si>
+    <t>00000036</t>
+  </si>
+  <si>
+    <t>00000037</t>
+  </si>
+  <si>
+    <t>00000038</t>
+  </si>
+  <si>
+    <t>00000039</t>
+  </si>
+  <si>
+    <t>00000040</t>
+  </si>
+  <si>
+    <t>00000041</t>
+  </si>
+  <si>
+    <t>00000042</t>
+  </si>
+  <si>
+    <t>00000043</t>
+  </si>
+  <si>
+    <t>00000044</t>
+  </si>
+  <si>
+    <t>00000045</t>
+  </si>
+  <si>
+    <t>00000046</t>
+  </si>
+  <si>
+    <t>00000047</t>
+  </si>
+  <si>
+    <t>00000048</t>
+  </si>
+  <si>
+    <t>00000049</t>
+  </si>
+  <si>
+    <t>00000050</t>
+  </si>
+  <si>
+    <t>00000051</t>
+  </si>
+  <si>
+    <t>00000052</t>
+  </si>
+  <si>
+    <t>00000053</t>
+  </si>
+  <si>
+    <t>00000054</t>
+  </si>
+  <si>
+    <t>Grade</t>
   </si>
 </sst>
 </file>
@@ -67,10 +366,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,15 +392,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -115,6 +408,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -123,17 +431,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,14 +479,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,13 +488,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,27 +507,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -221,14 +521,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -245,7 +537,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,7 +669,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,115 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,31 +711,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,31 +738,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,13 +758,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,161 +802,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1037,11 +1338,11 @@
   <sheetPr/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1112,14 +1413,135 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="3"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="3"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3"/>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="3"/>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3"/>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3"/>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="3"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1129,16 +1551,1491 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.1333333333333" style="2"/>
+    <col min="2" max="16384" width="9.06666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>20200740001</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>20200740002</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>20200740003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>20200740004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>20200740005</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>20200740006</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>20200740007</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>20200740008</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>20200740009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>20200740010</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>20200740011</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>20200740012</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>20200740013</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+      <c r="D2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+      <c r="D3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>2020</v>
+      </c>
+      <c r="D4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
+      </c>
+      <c r="D6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>2020</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8">
+        <v>2020</v>
+      </c>
+      <c r="D8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9">
+        <v>2020</v>
+      </c>
+      <c r="D9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>2020</v>
+      </c>
+      <c r="D10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>2020</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
+      </c>
+      <c r="D12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13">
+        <v>2020</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14">
+        <v>2020</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15">
+        <v>2020</v>
+      </c>
+      <c r="D15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>2020</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
+      </c>
+      <c r="D17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18">
+        <v>2020</v>
+      </c>
+      <c r="D18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21">
+        <v>2020</v>
+      </c>
+      <c r="D21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>2020</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23">
+        <v>2020</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24">
+        <v>2020</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>2020</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26">
+        <v>2020</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27">
+        <v>2020</v>
+      </c>
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>2020</v>
+      </c>
+      <c r="D28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29">
+        <v>2021</v>
+      </c>
+      <c r="D29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30">
+        <v>2021</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31">
+        <v>2021</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32">
+        <v>2021</v>
+      </c>
+      <c r="D32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>2021</v>
+      </c>
+      <c r="D33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>2021</v>
+      </c>
+      <c r="D34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2021</v>
+      </c>
+      <c r="D35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36">
+        <v>2021</v>
+      </c>
+      <c r="D36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37">
+        <v>2021</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38">
+        <v>2021</v>
+      </c>
+      <c r="D38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39">
+        <v>2021</v>
+      </c>
+      <c r="D39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40">
+        <v>2021</v>
+      </c>
+      <c r="D40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>2021</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42">
+        <v>2021</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43">
+        <v>2021</v>
+      </c>
+      <c r="D43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44">
+        <v>2021</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45">
+        <v>2021</v>
+      </c>
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46">
+        <v>2021</v>
+      </c>
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>2021</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>2021</v>
+      </c>
+      <c r="D49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50">
+        <v>2021</v>
+      </c>
+      <c r="D50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51">
+        <v>2021</v>
+      </c>
+      <c r="D51" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52">
+        <v>2021</v>
+      </c>
+      <c r="D52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>2021</v>
+      </c>
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54">
+        <v>2021</v>
+      </c>
+      <c r="D54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55">
+        <v>2021</v>
+      </c>
+      <c r="D55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="12.1333333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>20200740001</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>86.36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>20200740002</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3">
+        <v>74.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>20200740003</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4">
+        <v>53.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>20200740004</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>83.48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>20200740005</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>37.57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>20200740006</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>89.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>20200740007</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>90.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>20200740008</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>99.99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>20200740009</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10">
+        <v>87.58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>20200740010</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>78.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>20200740011</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>75.38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>20200740012</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>20200740013</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14">
+        <v>89.45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>20200740012</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15">
+        <v>80.95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>20200740001</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16">
+        <v>78.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>20200740001</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17">
+        <v>75.38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>20200740001</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18">
+        <v>38.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>20200740010</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>67.58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>20200740011</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>83.58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20200740012</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>78.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>20200740013</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22">
+        <v>75.38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9.06666666666667" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/SQL/SQL_Data.xlsx
+++ b/SQL/SQL_Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="8340" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7710" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Department" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="ExClass" sheetId="6" r:id="rId6"/>
     <sheet name="Learn" sheetId="7" r:id="rId7"/>
     <sheet name="Teaching" sheetId="8" r:id="rId8"/>
+    <sheet name="Admin" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="133">
   <si>
     <t>DeptNo</t>
   </si>
@@ -92,21 +93,54 @@
     <t>TechName</t>
   </si>
   <si>
+    <t>Pwd</t>
+  </si>
+  <si>
+    <t>20200010001</t>
+  </si>
+  <si>
     <t>Jacky</t>
   </si>
   <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>20200010002</t>
+  </si>
+  <si>
     <t>Gary</t>
   </si>
   <si>
+    <t>123457</t>
+  </si>
+  <si>
+    <t>20200010003</t>
+  </si>
+  <si>
     <t>Paul</t>
   </si>
   <si>
+    <t>123458</t>
+  </si>
+  <si>
+    <t>20200010004</t>
+  </si>
+  <si>
     <t>Toby</t>
   </si>
   <si>
+    <t>123459</t>
+  </si>
+  <si>
+    <t>20200010005</t>
+  </si>
+  <si>
     <t>Tony</t>
   </si>
   <si>
+    <t>123460</t>
+  </si>
+  <si>
     <t>StuNo</t>
   </si>
   <si>
@@ -131,27 +165,51 @@
     <t>gary</t>
   </si>
   <si>
+    <t>123461</t>
+  </si>
+  <si>
     <t>paul</t>
   </si>
   <si>
+    <t>123462</t>
+  </si>
+  <si>
     <t>khan</t>
   </si>
   <si>
+    <t>123463</t>
+  </si>
+  <si>
     <t>tiantian</t>
   </si>
   <si>
+    <t>123464</t>
+  </si>
+  <si>
     <t>god</t>
   </si>
   <si>
+    <t>123465</t>
+  </si>
+  <si>
     <t>black</t>
   </si>
   <si>
+    <t>123466</t>
+  </si>
+  <si>
     <t>blue</t>
   </si>
   <si>
+    <t>123467</t>
+  </si>
+  <si>
     <t>pink</t>
   </si>
   <si>
+    <t>123468</t>
+  </si>
+  <si>
     <t>CourseNo</t>
   </si>
   <si>
@@ -357,6 +415,12 @@
   </si>
   <si>
     <t>Grade</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -364,10 +428,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -386,6 +450,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -393,23 +464,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,14 +480,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -462,15 +517,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -480,6 +528,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,8 +556,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -531,13 +595,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,25 +643,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -597,13 +685,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,7 +733,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,91 +763,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -734,15 +798,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -754,6 +809,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -788,6 +852,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -813,159 +886,150 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1342,7 +1406,7 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1419,7 +1483,7 @@
       <selection activeCell="C2" sqref="C2:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
@@ -1551,18 +1615,19 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="12.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
@@ -1572,60 +1637,78 @@
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="3" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="3" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1638,170 +1721,212 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.1333333333333" style="2"/>
     <col min="2" max="16384" width="9.06666666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="2">
         <v>20200740001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>20200740002</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>20200740003</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>20200740004</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>20200740005</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>20200740006</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>20200740007</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>20200740008</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>20200740009</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>20200740010</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>20200740011</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>20200740012</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="2">
         <v>20200740013</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1819,19 +1944,19 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1839,58 +1964,58 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1904,780 +2029,780 @@
   <sheetPr/>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A34" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>2020</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>2020</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>2020</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>2020</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>2020</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>2020</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>2020</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C10">
         <v>2020</v>
       </c>
       <c r="D10" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C11">
         <v>2020</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C12">
         <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>2020</v>
       </c>
       <c r="D13" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>2020</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>2020</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C16">
         <v>2020</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C17">
         <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>2020</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="4" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C19">
         <v>2020</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="4" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C20">
         <v>2020</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="4" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C21">
         <v>2020</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>2020</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>2020</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C24">
         <v>2020</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="4" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C25">
         <v>2020</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="4" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C26">
         <v>2020</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="4" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C27">
         <v>2020</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="4" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>2020</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="4" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C29">
         <v>2021</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="4" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C30">
         <v>2021</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="4" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C31">
         <v>2021</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="4" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C32">
         <v>2021</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="4" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C33">
         <v>2021</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C34">
         <v>2021</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="4" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C35">
         <v>2021</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="4" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C36">
         <v>2021</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="4" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>2021</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="4" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C38">
         <v>2021</v>
       </c>
       <c r="D38" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="4" t="s">
-        <v>94</v>
+        <v>113</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>2021</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="4" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C40">
         <v>2021</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="4" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C41">
         <v>2021</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="4" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C42">
         <v>2021</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="4" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C43">
         <v>2021</v>
       </c>
       <c r="D43" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="4" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C44">
         <v>2021</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="4" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>2021</v>
       </c>
       <c r="D45" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C46">
         <v>2021</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="4" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C47">
         <v>2021</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C48">
         <v>2021</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C49">
         <v>2021</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="4" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C50">
         <v>2021</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="4" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C51">
         <v>2021</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="4" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C52">
         <v>2021</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="4" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>2021</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>2021</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="4" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C55">
         <v>2021</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2691,24 +2816,24 @@
   <sheetPr/>
   <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="12.1333333333333"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2716,7 +2841,7 @@
         <v>20200740001</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>86.36</v>
@@ -2727,7 +2852,7 @@
         <v>20200740002</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>74.47</v>
@@ -2738,7 +2863,7 @@
         <v>20200740003</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>53.78</v>
@@ -2749,7 +2874,7 @@
         <v>20200740004</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="C5">
         <v>83.48</v>
@@ -2760,7 +2885,7 @@
         <v>20200740005</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>37.57</v>
@@ -2771,7 +2896,7 @@
         <v>20200740006</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="C7">
         <v>89.25</v>
@@ -2782,7 +2907,7 @@
         <v>20200740007</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="C8">
         <v>90.47</v>
@@ -2793,7 +2918,7 @@
         <v>20200740008</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>99.99</v>
@@ -2804,7 +2929,7 @@
         <v>20200740009</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>87.58</v>
@@ -2815,7 +2940,7 @@
         <v>20200740010</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C11">
         <v>78.78</v>
@@ -2826,7 +2951,7 @@
         <v>20200740011</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>75.38</v>
@@ -2837,7 +2962,7 @@
         <v>20200740012</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C13">
         <v>38.8</v>
@@ -2848,7 +2973,7 @@
         <v>20200740013</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="C14">
         <v>89.45</v>
@@ -2859,7 +2984,7 @@
         <v>20200740012</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C15">
         <v>80.95</v>
@@ -2870,7 +2995,7 @@
         <v>20200740001</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="C16">
         <v>78.78</v>
@@ -2881,7 +3006,7 @@
         <v>20200740001</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C17">
         <v>75.38</v>
@@ -2892,7 +3017,7 @@
         <v>20200740001</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="C18">
         <v>38.8</v>
@@ -2903,7 +3028,7 @@
         <v>20200740010</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C19">
         <v>67.58</v>
@@ -2914,7 +3039,7 @@
         <v>20200740011</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C20">
         <v>83.58</v>
@@ -2925,7 +3050,7 @@
         <v>20200740012</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C21">
         <v>78.78</v>
@@ -2936,7 +3061,7 @@
         <v>20200740013</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>75.38</v>
@@ -2954,12 +3079,12 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="16.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.06666666666667" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9.06666666666667" style="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2967,72 +3092,137 @@
         <v>21</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>45</v>
+      <c r="B2">
+        <v>123456</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/SQL/SQL_Data.xlsx
+++ b/SQL/SQL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackZhuang\Desktop\StuGradeManagerSystem\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E2F8B1-05FA-4B7E-848B-1C54C07B8CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A47825-0225-4877-99AF-8A754E74FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Department" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="335">
   <si>
     <t>DeptNo</t>
   </si>
@@ -923,6 +923,260 @@
   </si>
   <si>
     <t>484535</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000055</t>
+  </si>
+  <si>
+    <t>00000056</t>
+  </si>
+  <si>
+    <t>00000057</t>
+  </si>
+  <si>
+    <t>00000058</t>
+  </si>
+  <si>
+    <t>00000059</t>
+  </si>
+  <si>
+    <t>00000060</t>
+  </si>
+  <si>
+    <t>00000061</t>
+  </si>
+  <si>
+    <t>00000062</t>
+  </si>
+  <si>
+    <t>00000063</t>
+  </si>
+  <si>
+    <t>00000064</t>
+  </si>
+  <si>
+    <t>00000065</t>
+  </si>
+  <si>
+    <t>00000066</t>
+  </si>
+  <si>
+    <t>00000067</t>
+  </si>
+  <si>
+    <t>00000068</t>
+  </si>
+  <si>
+    <t>00000069</t>
+  </si>
+  <si>
+    <t>00000070</t>
+  </si>
+  <si>
+    <t>00000071</t>
+  </si>
+  <si>
+    <t>00000072</t>
+  </si>
+  <si>
+    <t>00000073</t>
+  </si>
+  <si>
+    <t>00000074</t>
+  </si>
+  <si>
+    <t>00000075</t>
+  </si>
+  <si>
+    <t>00000076</t>
+  </si>
+  <si>
+    <t>00000077</t>
+  </si>
+  <si>
+    <t>00000078</t>
+  </si>
+  <si>
+    <t>00000079</t>
+  </si>
+  <si>
+    <t>00000080</t>
+  </si>
+  <si>
+    <t>00000081</t>
+  </si>
+  <si>
+    <t>00000082</t>
+  </si>
+  <si>
+    <t>00000083</t>
+  </si>
+  <si>
+    <t>00000084</t>
+  </si>
+  <si>
+    <t>00000085</t>
+  </si>
+  <si>
+    <t>00000086</t>
+  </si>
+  <si>
+    <t>00000087</t>
+  </si>
+  <si>
+    <t>00000088</t>
+  </si>
+  <si>
+    <t>00000089</t>
+  </si>
+  <si>
+    <t>00000090</t>
+  </si>
+  <si>
+    <t>00000091</t>
+  </si>
+  <si>
+    <t>00000092</t>
+  </si>
+  <si>
+    <t>00000093</t>
+  </si>
+  <si>
+    <t>00000094</t>
+  </si>
+  <si>
+    <t>00000095</t>
+  </si>
+  <si>
+    <t>00000096</t>
+  </si>
+  <si>
+    <t>00000097</t>
+  </si>
+  <si>
+    <t>00000098</t>
+  </si>
+  <si>
+    <t>00000099</t>
+  </si>
+  <si>
+    <t>00000100</t>
+  </si>
+  <si>
+    <t>JavaWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>English</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Software Arch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operating System</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HCI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000008</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00000015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010014</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010015</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20200010018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -976,7 +1230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -993,6 +1247,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1546,7 +1806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -2581,7 +2841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -2961,10 +3221,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3039,6 +3299,62 @@
       </c>
       <c r="B9" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -3049,10 +3365,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3825,6 +4141,650 @@
       </c>
       <c r="D55" t="s">
         <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C56">
+        <v>2022</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57">
+        <v>2022</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58">
+        <v>2022</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C59">
+        <v>2022</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60">
+        <v>2022</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61">
+        <v>2022</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62">
+        <v>2022</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C63">
+        <v>2022</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C64">
+        <v>2022</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65">
+        <v>2022</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66">
+        <v>2022</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C67">
+        <v>2022</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C68">
+        <v>2022</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C69">
+        <v>2022</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C70">
+        <v>2022</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71">
+        <v>2022</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72">
+        <v>2022</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73">
+        <v>2022</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74">
+        <v>2022</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75">
+        <v>2022</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C76">
+        <v>2022</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C77">
+        <v>2022</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78">
+        <v>2022</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79">
+        <v>2022</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C80">
+        <v>2023</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>2023</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82">
+        <v>2023</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C83">
+        <v>2023</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C84">
+        <v>2023</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85">
+        <v>2023</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C86">
+        <v>2023</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C87">
+        <v>2023</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88">
+        <v>2023</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="C89">
+        <v>2023</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90">
+        <v>2023</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="C91">
+        <v>2023</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C92">
+        <v>2023</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C93">
+        <v>2023</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C94">
+        <v>2023</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C95">
+        <v>2023</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96">
+        <v>2023</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97">
+        <v>2023</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C98">
+        <v>2024</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99">
+        <v>2024</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C100">
+        <v>2024</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C101">
+        <v>2024</v>
+      </c>
+      <c r="D101" s="6" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3835,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -3917,6 +4877,772 @@
       <c r="B9" s="4" t="s">
         <v>77</v>
       </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="5"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="5"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="5"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="5"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="5"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="5"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="5"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="5"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/SQL/SQL_Data.xlsx
+++ b/SQL/SQL_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JackZhuang\Desktop\StuGradeManagerSystem\SQL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A47825-0225-4877-99AF-8A754E74FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470EE809-738B-49FE-9D7D-C97FB2FA2FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Department" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="326">
   <si>
     <t>DeptNo</t>
   </si>
@@ -799,42 +799,6 @@
   </si>
   <si>
     <t>20200010009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100010</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100012</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100014</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100015</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100017</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>202000100018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1807,7 +1771,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1939,7 +1903,7 @@
         <v>136</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1947,13 +1911,13 @@
         <v>227</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1961,91 +1925,91 @@
         <v>228</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
-        <v>229</v>
+        <v>317</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>231</v>
+        <v>319</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>232</v>
+        <v>320</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>233</v>
+        <v>321</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
@@ -2056,44 +2020,44 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>235</v>
+        <v>323</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>237</v>
+        <v>325</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2841,7 +2805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -3306,7 +3270,7 @@
         <v>83</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -3314,7 +3278,7 @@
         <v>84</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -3322,7 +3286,7 @@
         <v>85</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -3330,7 +3294,7 @@
         <v>86</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -3338,7 +3302,7 @@
         <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -3346,7 +3310,7 @@
         <v>88</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -3354,7 +3318,7 @@
         <v>89</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -3367,7 +3331,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E101" sqref="E101"/>
     </sheetView>
   </sheetViews>
@@ -4145,7 +4109,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>69</v>
@@ -4154,12 +4118,12 @@
         <v>2022</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>71</v>
@@ -4168,12 +4132,12 @@
         <v>2022</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>73</v>
@@ -4182,26 +4146,26 @@
         <v>2022</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C59">
         <v>2022</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B60" s="7" t="s">
         <v>77</v>
@@ -4210,12 +4174,12 @@
         <v>2022</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>83</v>
@@ -4224,12 +4188,12 @@
         <v>2022</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>84</v>
@@ -4238,12 +4202,12 @@
         <v>2022</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>85</v>
@@ -4252,12 +4216,12 @@
         <v>2022</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>86</v>
@@ -4266,12 +4230,12 @@
         <v>2022</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>87</v>
@@ -4280,12 +4244,12 @@
         <v>2022</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>88</v>
@@ -4294,12 +4258,12 @@
         <v>2022</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>83</v>
@@ -4308,82 +4272,82 @@
         <v>2022</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C68">
         <v>2022</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C69">
         <v>2022</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C70">
         <v>2022</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C71">
         <v>2022</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C72">
         <v>2022</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>87</v>
@@ -4392,12 +4356,12 @@
         <v>2022</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>88</v>
@@ -4406,12 +4370,12 @@
         <v>2022</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>89</v>
@@ -4420,68 +4384,68 @@
         <v>2022</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C76">
         <v>2022</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="C77">
         <v>2022</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C78">
         <v>2022</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C79">
         <v>2022</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>83</v>
@@ -4490,12 +4454,12 @@
         <v>2023</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>84</v>
@@ -4504,12 +4468,12 @@
         <v>2023</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>85</v>
@@ -4518,12 +4482,12 @@
         <v>2023</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>86</v>
@@ -4532,12 +4496,12 @@
         <v>2023</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B84" s="7" t="s">
         <v>87</v>
@@ -4546,12 +4510,12 @@
         <v>2023</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="B85" s="7" t="s">
         <v>88</v>
@@ -4560,12 +4524,12 @@
         <v>2023</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B86" s="7" t="s">
         <v>89</v>
@@ -4574,82 +4538,82 @@
         <v>2023</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="C87">
         <v>2023</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C88">
         <v>2023</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="C89">
         <v>2023</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C90">
         <v>2023</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="C91">
         <v>2023</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>73</v>
@@ -4658,12 +4622,12 @@
         <v>2023</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>75</v>
@@ -4672,12 +4636,12 @@
         <v>2023</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>77</v>
@@ -4686,12 +4650,12 @@
         <v>2023</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>83</v>
@@ -4700,12 +4664,12 @@
         <v>2023</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>84</v>
@@ -4714,12 +4678,12 @@
         <v>2023</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>85</v>
@@ -4728,26 +4692,26 @@
         <v>2023</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="C98">
         <v>2024</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>65</v>
@@ -4756,12 +4720,12 @@
         <v>2024</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B100" s="7" t="s">
         <v>67</v>
@@ -4770,12 +4734,12 @@
         <v>2024</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B101" s="7" t="s">
         <v>69</v>
@@ -4784,7 +4748,7 @@
         <v>2024</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -4797,8 +4761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B111"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="C106" sqref="C106"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.06640625" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -4880,7 +4844,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>83</v>
@@ -4920,7 +4884,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>88</v>
@@ -4928,7 +4892,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>89</v>
@@ -4936,7 +4900,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>90</v>
@@ -4944,7 +4908,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>91</v>
@@ -4952,7 +4916,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>93</v>
@@ -4960,7 +4924,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>94</v>
@@ -4968,7 +4932,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>95</v>
@@ -4976,7 +4940,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>96</v>
@@ -4984,7 +4948,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>97</v>
@@ -5056,7 +5020,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>106</v>
@@ -5096,7 +5060,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>111</v>
@@ -5104,7 +5068,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>112</v>
@@ -5112,7 +5076,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>113</v>
@@ -5120,7 +5084,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>114</v>
@@ -5128,7 +5092,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>115</v>
@@ -5136,7 +5100,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>116</v>
@@ -5144,7 +5108,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>117</v>
@@ -5152,7 +5116,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>118</v>
@@ -5160,7 +5124,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>119</v>
@@ -5232,7 +5196,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>128</v>
@@ -5251,7 +5215,7 @@
         <v>146</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -5259,7 +5223,7 @@
         <v>227</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -5267,79 +5231,79 @@
         <v>228</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5347,7 +5311,7 @@
         <v>24</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
@@ -5355,7 +5319,7 @@
         <v>27</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
@@ -5363,7 +5327,7 @@
         <v>30</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -5371,7 +5335,7 @@
         <v>33</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -5379,7 +5343,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -5387,7 +5351,7 @@
         <v>27</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -5395,7 +5359,7 @@
         <v>30</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -5403,15 +5367,15 @@
         <v>33</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
@@ -5419,7 +5383,7 @@
         <v>143</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
@@ -5427,7 +5391,7 @@
         <v>146</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
@@ -5435,7 +5399,7 @@
         <v>227</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
@@ -5443,79 +5407,79 @@
         <v>228</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="5" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
@@ -5523,7 +5487,7 @@
         <v>24</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
@@ -5531,7 +5495,7 @@
         <v>27</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
@@ -5539,7 +5503,7 @@
         <v>30</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
@@ -5547,7 +5511,7 @@
         <v>33</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
@@ -5555,7 +5519,7 @@
         <v>36</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -5563,7 +5527,7 @@
         <v>27</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
@@ -5571,7 +5535,7 @@
         <v>30</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -5579,15 +5543,15 @@
         <v>33</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -5595,7 +5559,7 @@
         <v>143</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
@@ -5603,7 +5567,7 @@
         <v>146</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -5611,7 +5575,7 @@
         <v>227</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
